--- a/Data Analysis/Smith Creek Deployment Log.xlsx
+++ b/Data Analysis/Smith Creek Deployment Log.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bresnahanp/Dropbox/Smart_Coasts_Sensors/Water-Level/Open-Water-Level/Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFDD0CA-2909-3341-BB8B-D682FB0E7D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D00F0B-7CBC-8644-A253-99106137FC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="3160" windowWidth="38400" windowHeight="21100" xr2:uid="{2C2A2005-0F3A-5045-8878-F39D51731DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>ft @ Wilmington tide gauge</t>
   </si>
@@ -72,13 +72,79 @@
   </si>
   <si>
     <t>At 3 pm on 21-Feb-2024, Wilmington tide gauge was reading 1.16 ft. There's a lag up to Smith Creek sites, but considering that to be negligible for now to get reasonable values… Sensors will need to be surveyed in to correct this.</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>NAD83(2011)</t>
+  </si>
+  <si>
+    <t>NAVD 88</t>
+  </si>
+  <si>
+    <t>adjustment</t>
+  </si>
+  <si>
+    <t>NAVD88</t>
+  </si>
+  <si>
+    <t>manhole center SE (by N Kerr bridge SE side by boat pullout)</t>
+  </si>
+  <si>
+    <t>34.26221123N</t>
+  </si>
+  <si>
+    <t>77.88744165W</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>manhole center SF (top of N Kerr waterlevel sensor solar panel)</t>
+  </si>
+  <si>
+    <t>34.26242692N</t>
+  </si>
+  <si>
+    <t>77.88773840W</t>
+  </si>
+  <si>
+    <t>manhole center SG (notch on bridge above n Kerr aquatroll)</t>
+  </si>
+  <si>
+    <t>34.26237896N</t>
+  </si>
+  <si>
+    <t>77.88771677W</t>
+  </si>
+  <si>
+    <t>23 bridge (top of angleiron of water level arm)</t>
+  </si>
+  <si>
+    <t>34.25801326N</t>
+  </si>
+  <si>
+    <t>77.91987189W</t>
+  </si>
+  <si>
+    <t>Notes from Hawkes email "Fieldnotes &amp; RTK points from March 5 2024 Bridge instrument levelling"</t>
+  </si>
+  <si>
+    <t>PJB Sensors</t>
+  </si>
+  <si>
+    <t>OLD CALCULATIONS; SUPERSEDED BY ANDREA'S RTK POINTS ABOVE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,13 +158,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,9 +196,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,95 +537,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BEA283-A8B2-364C-8484-BC9F7AC30B76}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-35.098999999999997</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-34.651000000000003</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.899</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-35.954999999999998</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.2336</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-1.3176000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-33.094999999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.665</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>1.1599999999999999</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <f>A2*0.3048</f>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>A11*0.3048</f>
         <v>0.35356799999999999</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f>A3*100</f>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>A12*100</f>
         <v>35.3568</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>405.70557000000002</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>246.25138999999999</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f>A6+A4</f>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>A15+A13</f>
         <v>441.06237000000004</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f>A7+A4</f>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>A16+A13</f>
         <v>281.60818999999998</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B22" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Data Analysis/Smith Creek Deployment Log.xlsx
+++ b/Data Analysis/Smith Creek Deployment Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bresnahanp/Dropbox/Smart_Coasts_Sensors/Water-Level/Open-Water-Level/Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D00F0B-7CBC-8644-A253-99106137FC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8278EFF3-6C45-0944-AF18-C81FEF54CC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="3160" windowWidth="38400" windowHeight="21100" xr2:uid="{2C2A2005-0F3A-5045-8878-F39D51731DE6}"/>
+    <workbookView xWindow="-38400" yWindow="2040" windowWidth="38400" windowHeight="21100" xr2:uid="{2C2A2005-0F3A-5045-8878-F39D51731DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>ft @ Wilmington tide gauge</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>OLD CALCULATIONS; SUPERSEDED BY ANDREA'S RTK POINTS ABOVE</t>
+  </si>
+  <si>
+    <t>N 23rd St</t>
+  </si>
+  <si>
+    <t>N Kerr Ave</t>
   </si>
 </sst>
 </file>
@@ -196,11 +202,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -540,7 +545,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,22 +569,22 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -608,10 +613,10 @@
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2">
@@ -623,7 +628,7 @@
       <c r="F4" s="2">
         <v>0.32</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>1.899</v>
       </c>
       <c r="H4" t="s">
@@ -657,10 +662,10 @@
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="2">
@@ -672,7 +677,7 @@
       <c r="F6" s="2">
         <v>0.15</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>3.5150000000000001</v>
       </c>
       <c r="H6" t="s">
@@ -680,7 +685,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -731,7 +736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>A15+A13</f>
         <v>441.06237000000004</v>
@@ -740,7 +745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>A16+A13</f>
         <v>281.60818999999998</v>
@@ -749,20 +754,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Data Analysis/Smith Creek Deployment Log.xlsx
+++ b/Data Analysis/Smith Creek Deployment Log.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bresnahanp/Dropbox/Smart_Coasts_Sensors/Water-Level/Open-Water-Level/Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8278EFF3-6C45-0944-AF18-C81FEF54CC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C6FA82-44EA-F844-83E5-B25EBC192ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="2040" windowWidth="38400" windowHeight="21100" xr2:uid="{2C2A2005-0F3A-5045-8878-F39D51731DE6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>ft @ Wilmington tide gauge</t>
   </si>
@@ -144,13 +146,85 @@
   </si>
   <si>
     <t>N Kerr Ave</t>
+  </si>
+  <si>
+    <t>e00fce680cdac6c15e5dfc75</t>
+  </si>
+  <si>
+    <t>Device ID</t>
+  </si>
+  <si>
+    <t>adjustment to sensing surface</t>
+  </si>
+  <si>
+    <t>e00fce686649823d18a012b5</t>
+  </si>
+  <si>
+    <t>object surveyed</t>
+  </si>
+  <si>
+    <t>Site Name</t>
+  </si>
+  <si>
+    <t>Kerr Ave and Smith Creek</t>
+  </si>
+  <si>
+    <t>N 23rd St and Smith Creek</t>
+  </si>
+  <si>
+    <t>None. Referenced to ILM NOAA Station.</t>
+  </si>
+  <si>
+    <t>MLLW at ILM</t>
+  </si>
+  <si>
+    <t>Reference (m)</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>System Firmware</t>
+  </si>
+  <si>
+    <t>4.2.0</t>
+  </si>
+  <si>
+    <t>Version notes</t>
+  </si>
+  <si>
+    <t>60-min, cell standby, internal batt only</t>
+  </si>
+  <si>
+    <t>60-min, cell off, external batt</t>
+  </si>
+  <si>
+    <t>e00fce68f6984418a4ecb4cc</t>
+  </si>
+  <si>
+    <t>e00fce685b52525503149da9</t>
+  </si>
+  <si>
+    <t>waterLevel_0002</t>
+  </si>
+  <si>
+    <t>waterLevel_0003</t>
+  </si>
+  <si>
+    <t>date deployed</t>
+  </si>
+  <si>
+    <t>None, but referenced to old survey point and shifted by 5.3 cm closer to water</t>
+  </si>
+  <si>
+    <t>None, but referenced to old survey point. Sensor shifted by 4 cm closer to water in new configuration and angle iron dipped an additional 5.2 cm closer to water.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,6 +248,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -202,12 +283,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,11 +629,335 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5D9AF5-05D1-F14A-943C-3D4BD92AFD6A}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45343</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3">
+        <v>4.4109999999999996</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45343</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3">
+        <v>2.8159999999999998</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45356</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-33.094999999999999</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3.665</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45356</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-34.651000000000003</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.899</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45387</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="10">
+        <v>3.4119999999999999</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5">
+        <v>45387</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1.827</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BEA283-A8B2-364C-8484-BC9F7AC30B76}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -779,4 +1191,21 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF3F9E8-6F2B-8A41-ACD8-5EA0FF2901A4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>